--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB04DA-0B64-47C5-9FB7-CE81F4CD7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0535790-043E-4CCB-93AB-E56F5A8539BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,56 @@
   </si>
   <si>
     <t>[1_$B09$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1_$TotalType$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>類，共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1_$TotalCount$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>輛</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +213,46 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,12 +297,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -510,114 +609,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0535790-043E-4CCB-93AB-E56F5A8539BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B9FAC2-F8AF-46DE-8746-4B7C2E739E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <b/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -155,7 +156,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -166,7 +168,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <b/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -177,7 +180,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -193,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,15 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -225,30 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -297,22 +272,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,128 +568,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4"/>

--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B9FAC2-F8AF-46DE-8746-4B7C2E739E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A4DC0-C947-4A43-AF64-29E7EC47DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,12 +192,98 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全國環境消毒設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境消毒藥劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱藥劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全國</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>縣市環保單位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$xxxx$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +316,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -245,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,11 +363,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +461,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -578,9 +787,15 @@
     <col min="2" max="2" width="7.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +808,21 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -607,8 +835,21 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -621,8 +862,21 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -635,8 +889,19 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -649,8 +914,21 @@
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -663,8 +941,19 @@
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -677,8 +966,19 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -688,7 +988,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -697,8 +997,13 @@
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A4DC0-C947-4A43-AF64-29E7EC47DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B4FDD-4497-4191-B1F7-A7B69C0EA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,10 @@
   </si>
   <si>
     <t>公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$TotalDisinfectorCount$]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,41 +463,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +782,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -808,17 +812,17 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -835,17 +839,17 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -862,7 +866,7 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -874,7 +878,7 @@
       <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -889,7 +893,7 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
@@ -899,7 +903,7 @@
       <c r="I4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -914,7 +918,7 @@
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -926,7 +930,7 @@
       <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -951,7 +955,7 @@
       <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -966,7 +970,7 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
@@ -976,7 +980,7 @@
       <c r="I7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -989,12 +993,12 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B4FDD-4497-4191-B1F7-A7B69C0EA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33807EA9-A067-404A-AF58-9B53A0B83367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>[2_$TotalDisinfectorCount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$DisinfectantSolidCount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$DisinfectantLiquidCount$]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +790,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -873,7 +881,7 @@
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>42</v>
@@ -898,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>43</v>

--- a/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)緊急應變統計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33807EA9-A067-404A-AF58-9B53A0B83367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956854D4-A9F6-482E-B0F7-4C37FED51C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2_$xxxx$]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>臺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,11 +279,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2_$DisinfectantSolidCount$]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2_$DisinfectantLiquidCount$]</t>
+    <t>[2_$EnvironmentLiquidAmount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$EnvironmentSolidAmount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$DengueSolidAmount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$DengueLiquidAmount$]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2_$DengueEmulsionAmount$]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +798,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -852,10 +860,10 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>38</v>
@@ -881,10 +889,10 @@
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -909,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6"/>
     </row>
@@ -933,10 +941,10 @@
         <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -958,10 +966,10 @@
         <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -983,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="7"/>
     </row>
